--- a/biology/Neurosciences/Substantia_innominata/Substantia_innominata.xlsx
+++ b/biology/Neurosciences/Substantia_innominata/Substantia_innominata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La substantia innominata dite aussi « substance innominée de Reichert » désigne la partie du cerveau au sein du prosencéphale basal constituée d'un ensemble mal défini de structures incluant le noyau basal de Meynert et une partie du striatopallidum ventral (dont le noyau accumbens), d'une part et une partie du complexe amygdalien d'autre part.
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) L. Heimer, R. E. Harlan, G. F. Alheid, M. M. Garcia and J. de Olmos « Substantia innominata: a notion which impedes clinical-anatomical correlations in neuropsychiatric disorders » Neuroscience, Volume 76, Issue 4, , 15 January 1997, Pages 957-1006.
  Portail des neurosciences   Portail de la médecine                    </t>
